--- a/Python/Задача Гостиница 5 вариант/Гостиница Вариант№5.xlsx
+++ b/Python/Задача Гостиница 5 вариант/Гостиница Вариант№5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A\Desktop\Python\Задача Гостиница 5 вариант\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85815009-0394-46C0-83C4-9D6632ECE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE837224-ABAA-4FE6-A249-05FB45991C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="3" xr2:uid="{AFA3DC64-48C2-4888-8C73-2F4ADBDF9AF5}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{AFA3DC64-48C2-4888-8C73-2F4ADBDF9AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Код категории</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Срок проживания</t>
+  </si>
+  <si>
+    <t>Люкс</t>
+  </si>
+  <si>
+    <t>Премимум</t>
+  </si>
+  <si>
+    <t>Президентский</t>
+  </si>
+  <si>
+    <t>Пупкин</t>
+  </si>
+  <si>
+    <t>Бэкинн</t>
+  </si>
+  <si>
+    <t>Мартирасян</t>
+  </si>
+  <si>
+    <t>7 дней</t>
+  </si>
+  <si>
+    <t>2дня</t>
+  </si>
+  <si>
+    <t>3 дня</t>
   </si>
 </sst>
 </file>
@@ -108,8 +135,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -424,16 +452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA769506-7E90-4DDF-AED1-2A9AFDCE1F2A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -442,6 +470,30 @@
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -451,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151B4A1E-1A04-4469-B208-5BD81C504506}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,6 +529,48 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>155</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>156</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>175</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -484,15 +578,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F75AC6-6C86-4AB0-9A26-0644E4E44B63}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,6 +600,39 @@
       </c>
       <c r="C1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>4919234567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>4919234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>4919234567</v>
       </c>
     </row>
   </sheetData>
@@ -513,10 +642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2279832C-2DF0-47FE-9EC2-C03D5220E02C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +674,48 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44958</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
